--- a/sheets/Coding Decoded BitManipulation SDE sheet.xlsx
+++ b/sheets/Coding Decoded BitManipulation SDE sheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\sheets\sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E2C1FD-5B5E-4DF0-831C-1BC82A5E2C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="550" windowWidth="18880" windowHeight="8740"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
   <si>
     <t>How to extract bits from a number =&gt; Number of 1's</t>
   </si>
@@ -167,13 +173,19 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>MINIMUM FLIP</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-flips-to-make-a-or-b-equal-to-c/description/?envType=study-plan-v2&amp;envId=leetcode-75</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -371,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -436,6 +448,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -448,6 +463,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -650,24 +668,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57" customWidth="1"/>
     <col min="2" max="2" width="42.453125" customWidth="1"/>
     <col min="3" max="3" width="36.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -684,14 +702,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="13">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -700,7 +718,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="13">
+    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
@@ -717,7 +735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -734,7 +752,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
@@ -751,7 +769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>14</v>
       </c>
@@ -768,7 +786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13">
+    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
@@ -785,7 +803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
@@ -802,7 +820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13">
+    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>23</v>
       </c>
@@ -819,13 +837,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>27</v>
       </c>
@@ -839,7 +861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>30</v>
       </c>
@@ -853,7 +875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>47</v>
       </c>
@@ -865,7 +887,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>49</v>
       </c>
@@ -877,7 +899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>45</v>
       </c>
@@ -889,7 +911,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
@@ -903,7 +925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>36</v>
       </c>
@@ -917,7 +939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>40</v>
       </c>
@@ -931,39 +953,40 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.5">
+    <row r="28" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="C1" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="C5" r:id="rId6"/>
-    <hyperlink ref="B6" r:id="rId7"/>
-    <hyperlink ref="C6" r:id="rId8"/>
-    <hyperlink ref="C7" r:id="rId9"/>
-    <hyperlink ref="B8" r:id="rId10"/>
-    <hyperlink ref="C8" r:id="rId11"/>
-    <hyperlink ref="B9" r:id="rId12"/>
-    <hyperlink ref="C9" r:id="rId13"/>
-    <hyperlink ref="B10" r:id="rId14"/>
-    <hyperlink ref="C10" r:id="rId15"/>
-    <hyperlink ref="B12" r:id="rId16"/>
-    <hyperlink ref="C12" r:id="rId17"/>
-    <hyperlink ref="B13" r:id="rId18"/>
-    <hyperlink ref="C13" r:id="rId19"/>
-    <hyperlink ref="B17" r:id="rId20"/>
-    <hyperlink ref="C17" r:id="rId21"/>
-    <hyperlink ref="B19" r:id="rId22"/>
-    <hyperlink ref="C19" r:id="rId23"/>
-    <hyperlink ref="B20" r:id="rId24"/>
-    <hyperlink ref="C20" r:id="rId25"/>
-    <hyperlink ref="B7" r:id="rId26"/>
-    <hyperlink ref="B16" r:id="rId27"/>
-    <hyperlink ref="B14" r:id="rId28"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B12" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B17" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C17" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B14" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B11" r:id="rId29" xr:uid="{075AE479-68B2-4FBC-B8F2-A5343B1BEAEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
